--- a/Documentation/Sprint 1/Requirements/Requirements Stack.xlsx
+++ b/Documentation/Sprint 1/Requirements/Requirements Stack.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StardewModding\EECS-581-Group-7-Project-3\Documentation\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StardewModding\EECS-581-Group-7-Project-3\Documentation\Sprint 1\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01CE14-E21A-47AF-9A8A-A3312DEF71C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDF89E-30B6-4E11-8C8F-A1DC5EA68A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>The website should use the API at classes.ku.edu to get the search results for the user's input</t>
   </si>
   <si>
-    <t>The website should parse the API's response into the data format defined by the architecture</t>
-  </si>
-  <si>
     <t>The dropdown should have an empty state when there are no classes found</t>
   </si>
   <si>
@@ -71,144 +68,18 @@
     <t>The user should not be able to select the same class more than once</t>
   </si>
   <si>
-    <t>Cards should be rendered in the order they are added</t>
-  </si>
-  <si>
-    <t>There shouldn't be a shift the layout when many class cards have been added (should be able to scroll)</t>
-  </si>
-  <si>
-    <t>Total should be updated dynamically as classes are added/removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each scheduled card is given a color corresponding to its class card. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display unscheduled cards class info (just course name), if applicable. </t>
-  </si>
-  <si>
-    <t>Each unschedule card is given a color corresponding to its class card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display total possible schedules at the top. Ex "1 of 55 Schedules" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement an algorithm that finds all possible permutations of the selected classes. - Note when there are no possible schedules. </t>
-  </si>
-  <si>
-    <t>When a slot becomes blocked or unblocked, the permutaion options should update to reflect that</t>
-  </si>
-  <si>
-    <t>If there is already a valid permutation before a slot is unblocked, the currently selected permutation should not change even if more permutations become valid</t>
-  </si>
-  <si>
-    <t>If there is no valid permutation and unblocking a slot creates one or more valid permutations, one of the now-valid permutations should become selected</t>
-  </si>
-  <si>
-    <t>The user should be able to remove a class from their list of selected classes</t>
-  </si>
-  <si>
-    <t>A removed class should no longer appear on the sidebar or the schedule, and must be re-searched</t>
-  </si>
-  <si>
-    <t>Each ClassCard should have a '-' symbol in the top right which may be left clicked to remove the class</t>
-  </si>
-  <si>
-    <t>The user should be able to left-click on a schedule card to pin it to its current time</t>
-  </si>
-  <si>
-    <t>When a schedule card is pinned, it should show a pin icon in the top-right</t>
-  </si>
-  <si>
-    <t>The user should be able to unpin a schedule card by left-clicking it</t>
-  </si>
-  <si>
-    <t>All schedule cards displaying a common class section number should share their pinned status</t>
-  </si>
-  <si>
-    <t>The UI should darken out the time slots to reflect them being blocked.</t>
-  </si>
-  <si>
-    <t>7.2.1</t>
-  </si>
-  <si>
-    <t>7.2.2</t>
-  </si>
-  <si>
-    <t>7.2.3</t>
-  </si>
-  <si>
-    <t>7.3.1</t>
-  </si>
-  <si>
-    <t>7.3.2</t>
-  </si>
-  <si>
-    <t>7.4.1</t>
-  </si>
-  <si>
-    <t>7.4.2</t>
-  </si>
-  <si>
-    <t>8.2.1</t>
-  </si>
-  <si>
-    <t>8.2.1.1</t>
-  </si>
-  <si>
-    <t>8.2.1.2</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>"</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>The user should be able to block times through the UI, and should receive feedback from the UI for which times are blocked</t>
-  </si>
-  <si>
-    <t>The user should be able to block and unblock times by right-clicking on a time slot and dragging over any times they want to toggle the status of</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>The user should be able to pin and unpin classes through the UI</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -228,45 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">The search bar should have a dropdown UI component, which lists all the classes that match the user's search. The user should be able to click options in the dropdown, which will add them to the class list. </t>
-  </si>
-  <si>
-    <t>The system should display the total number of credit hours for the selected classes</t>
-  </si>
-  <si>
-    <t>The system should display Class Cards for the selected classes. Class Cards contain the class name, credit hours, instructor, and class length. Each class card should have a unique color</t>
-  </si>
-  <si>
-    <t>The class cards should contain data from the selected courses</t>
-  </si>
-  <si>
-    <t>The system should display the currently-selected schedule, with the ability to rotate through all possible permutations if courses offer multiple times.</t>
-  </si>
-  <si>
-    <t>The schedule should display in a grid. It should display monday through friday across the top with 30 min sections from 8 am to 6 pm top to bottom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The schedule should display Schedule Cards for each of the selected class-times. They should include course name, building name, room number, and time. </t>
-  </si>
-  <si>
-    <t>The schedule should place Schedule Cards at their corresponding days and time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If there are no possible schedules with the selected classes, the system should block schedule the and display a message. </t>
-  </si>
-  <si>
-    <t>Under the schedule, the system should display a "no scheduled time" section for unscheduled classes.</t>
-  </si>
-  <si>
-    <t>Include &lt;Prev and Next&gt; buttons to rotate through different permutations of the class times</t>
-  </si>
-  <si>
-    <t>User can rotate through premutations of the class times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the user pins a Schedule Card, only show permutations with the pinned section of that course. </t>
-  </si>
-  <si>
-    <t>The user should be able to 'block' certain times of the day in 30-minute blocks to prevent any classes from appearing in them in the class permutations.</t>
   </si>
   <si>
     <t>The user should be able to search for real classes for the upcoming semester by entering their department name and course number, such as "EECS 581"</t>
@@ -276,18 +108,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -418,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,9 +254,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,6 +261,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,14 +641,14 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="107.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,10 +659,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -842,695 +671,435 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="H2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="6">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6">
-        <v>4</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>6</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>8</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="7">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7">
-        <v>12</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="6">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6">
-        <v>13</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6">
-        <v>14</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-      <c r="D31" s="6">
-        <v>15</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>9</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>16</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="6">
-        <v>3</v>
-      </c>
-      <c r="D38" s="6">
-        <v>17</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="7">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7">
-        <v>18</v>
-      </c>
-      <c r="E43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -1632,8 +1201,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A37" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>